--- a/data/example_data/ten_obs_min_vars.xlsx
+++ b/data/example_data/ten_obs_min_vars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegoode/Desktop/carp-rf/shiny-app/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegoode/Desktop/carp-rf/shiny-app/app/data/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592895A7-84C3-2B43-B0B3-013F4BF8BF9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B68F8E6-48F4-A34F-B2BD-023D1BD13725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{2C8DB93F-ED8E-D240-B60C-7DE03C7D2E86}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{2C8DB93F-ED8E-D240-B60C-7DE03C7D2E86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t>Egg_ID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -88,15 +85,21 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -128,7 +131,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,91 +446,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1733C5-A389-9F4B-B042-E527138D520F}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>41847</v>
+        <v>2014</v>
       </c>
       <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
         <v>24.7</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>522</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2">
-        <v>1.42716625</v>
-      </c>
-      <c r="K2">
-        <v>4.3584913000000003E-2</v>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
       </c>
       <c r="L2">
         <v>1.42716625</v>
@@ -536,402 +546,462 @@
         <v>4.3584913000000003E-2</v>
       </c>
       <c r="N2">
+        <v>1.42716625</v>
+      </c>
+      <c r="O2">
+        <v>4.3584913000000003E-2</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>41866</v>
+        <v>2014</v>
       </c>
       <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
         <v>25.3</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>440</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3">
         <v>1.24384925</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>2.9098156E-2</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>1.021152525</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>9.1988819999999999E-2</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>41811</v>
+        <v>2014</v>
       </c>
       <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
         <v>26.3</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>473</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4">
         <v>3.766086</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.10439124499999999</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1.26680875</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>1.8744714999999999E-2</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>41811</v>
+        <v>2014</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
         <v>26.3</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>473</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
         <v>2.8397695000000001</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>6.8534599000000002E-2</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>1.6136682499999999</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.25849926699999998</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>41875</v>
+        <v>2014</v>
       </c>
       <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
         <v>25.5</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>498</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
         <v>1.4185537500000001</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>2.6286121999999999E-2</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>1.1064338499999999</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.14031097000000001</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>42226</v>
+        <v>2015</v>
       </c>
       <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>26.3</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>514</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7">
         <v>2.0806935000000002</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.117446564</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.96598534999999996</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>5.5192686999999997E-2</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>2.048397</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>42164</v>
+        <v>2015</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
         <v>23.1</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>654</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
         <v>2.9932829999999999</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.231379481</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>1.2829326999999999</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.38032813500000001</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>3.146455</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>42164</v>
+        <v>2015</v>
       </c>
       <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
         <v>23.1</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>654</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
         <v>2.77713375</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.288209987</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>2.1958660000000001</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.51851967600000004</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>42155</v>
+        <v>2015</v>
       </c>
       <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10">
         <v>19.2</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>674</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10">
         <v>3.5190085</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0.34337591099999998</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>2.7641740000000001</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.36515341899999998</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>42155</v>
+        <v>2015</v>
       </c>
       <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="E11">
         <v>19.2</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>674</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11">
         <v>3.5683845000000001</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.26986187</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>2.7135557499999998</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.222634683</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
